--- a/assets/seed_catalogo.xlsx
+++ b/assets/seed_catalogo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,17 +453,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Makita</t>
+          <t>Stihl</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DUR181Z</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9</v>
-      </c>
+          <t>FS 38</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -473,27 +471,686 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FS 120</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1.1</v>
-      </c>
+          <t>FS 55</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Stihl</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FS 85</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Stihl</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FS 120</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Stihl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FS 160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Stihl</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FS 220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Stihl</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FS 280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Stihl</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FS 300</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Stihl</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FS 350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Stihl</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FS 400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Husqvarna</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>128R</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>226R</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>236R</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240R</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>333R</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>335R</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>345R</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>545RXT</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>553RS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>555RXT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Echo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SRM-22GES</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Echo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SRM-266</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Echo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SRM-3020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Echo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SRM-410X</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C350</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C450</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>B45</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B530</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Shindaiwa</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BP510S</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UMK 425</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UMK 435</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Honda</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UMK 450T</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RT33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RT43L</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RT52</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RT520H</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RT430</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Vulcan</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>VR260</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Vulcan</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>VR330</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Vulcan</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VR430</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Vulcan</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>VR520H</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Makita</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DUR368LZ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Makita</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UR100DZ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Makita</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DUR181Z</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DeWalt</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DCM571X1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ryobi</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RBC36X26B</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EGO</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BC3800E</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FortGpro</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>43cc</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Buffalo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BF43</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B43L</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Oleo-Mac</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BC 300 T</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Oleo-Mac</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BC 400 T</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Efco</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DS 2400</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Efco</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DS 3000</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
